--- a/patient_data/patient_84.xlsx
+++ b/patient_data/patient_84.xlsx
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -939,10 +939,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -960,13 +960,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1016,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1205,16 +1205,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1282,16 +1282,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1359,64 +1359,64 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
         <v>1</v>
       </c>
-      <c r="B13" t="n">
+      <c r="S13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="n">
+      <c r="T13" t="n">
         <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1436,16 +1436,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1795,16 +1795,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1872,16 +1872,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -1949,16 +1949,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
